--- a/products.xlsx
+++ b/products.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vibha\Downloads\Price_Tracker_Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saraswatmajumder/Desktop/LIVE TRACKER/price-tracker-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2CF02-8E88-4340-ADFD-0F25218332F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154FC8B0-122F-3A44-B7BA-19F440BBD1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2E971475-875F-4985-9108-799ACF574EE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2E971475-875F-4985-9108-799ACF574EE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cimexis Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Competitor Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="111">
   <si>
     <t>Brand Name</t>
   </si>
@@ -202,13 +203,181 @@
   </si>
   <si>
     <t>Honey and Lemon Soap</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Hero Ingredient</t>
+  </si>
+  <si>
+    <t>SCP Link</t>
+  </si>
+  <si>
+    <t>Aloe Vera, Neem</t>
+  </si>
+  <si>
+    <t>Alite Active Neem &amp; Aloe Vera Soap</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Cleanse-Natural-Protection-Hydration-Refreshed/dp/B0DNF54WB1/ref=sr_1_2_sspa?crid=1KH12Y9SG8OIN&amp;dib=eyJ2IjoiMSJ9.Iwh0-03nxc_1RvtDc0hQ4gumLXDqdVUIhJRp8Wz--3DzBI4S0tJ2OebvR_wWripVjyW7u3eflgSpJCcTtno14ojMUfi883DS397EfrOmKwUIo9PVPAmhB-NvgcHpDp5fkeboGNyzuYrk5moG-fmbJJGyrc-A-Ek8RtM2xIZqrhYeDwoAsn3o0qmiN4UPa79CXsu0FOsaoRNRQInRnfkHn_7-MfgSCGfJh2E7p1LdOeubYebJARuMF6G6wiX1o-O6GUQU1oTHHfg1-QTyObuVxRxhXgyGHoaDM9S9N1drRUE.Q16g2USIdRzicbqek9FsZ0FtlznnL2eyArs6eebfuZs&amp;dib_tag=se&amp;keywords=aloe%2Bvera%2Bneem%2Bsoap&amp;qid=1770440771&amp;sprefix=aloe%2Bvera%2Bnee%2Bsoap%2Caps%2C533&amp;sr=8-2-spons&amp;aref=nNldu59BBf&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>Jivtara Neem &amp; Aloe Vera Ayurvedic Soap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/JIVTARA-Neem-Aloe-Vera-Ayurvedic/dp/B0FRSH67NR/ref=sr_1_8?crid=1KH12Y9SG8OIN&amp;dib=eyJ2IjoiMSJ9.Iwh0-03nxc_1RvtDc0hQ4gumLXDqdVUIhJRp8Wz--3DzBI4S0tJ2OebvR_wWripVjyW7u3eflgSpJCcTtno14ojMUfi883DS397EfrOmKwUIo9PVPAmhB-NvgcHpDp5fkeboGNyzuYrk5moG-fmbJJGyrc-A-Ek8RtM2xIZqrhYeDwoAsn3o0qmiN4UPa79CXsu0FOsaoRNRQInRnfkHn_7-MfgSCGfJh2E7p1LdOeubYebJARuMF6G6wiX1o-O6GUQU1oTHHfg1-QTyObuVxRxhXgyGHoaDM9S9N1drRUE.Q16g2USIdRzicbqek9FsZ0FtlznnL2eyArs6eebfuZs&amp;dib_tag=se&amp;keywords=aloe+vera+neem+soap&amp;qid=1770440771&amp;sprefix=aloe+vera+nee+soap%2Caps%2C533&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>Glamova Neem &amp; Aloe Vera Bathing Soap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Neem-Aloe-Nourishing-Anti-Aging-Younger-Looking/dp/B0GGZ7VFQY/ref=sr_1_2_sspa?crid=VPIRKYRAJFJO&amp;dib=eyJ2IjoiMSJ9.9uHpevtJsPOCTBp8e1y2EEhgLYHAp2E5VCHHstWg7cGYof6pn9SIq7Xw19C2pB2df-yi3MrJ083iC71UOfEqzpK-52ew9V3wNJ320Lzy-nCI7q2G6xgLpPht8CCCqzL7OkNl4W-B9cV1LdM7-x9M54luvSyFIhffDyi6DmotRN2a8s7x3bqkHAnrXA8uRREQRkxDglWWb70Ct3wCltmhnOoqiaJnYoz-3dFfpU-V4J7G4PYzjsI5GdgbSr4YjH5JcCRmzQAbUNyRt23SnSVDDzwJuYXuhzUlyBAuIg_1cYg.3_hp__FC6apmrrawqCesUU72SkbjBKGUTrrUE6j18ls&amp;dib_tag=se&amp;keywords=aloe%2Bvera%2Bneem%2Bsoap&amp;qid=1770440895&amp;s=beauty&amp;sprefix=aloe%2Bvera%2Bneem%2Bsoap%2Cbeauty%2C353&amp;sr=1-2-spons&amp;aref=BOLlnmOWjQ&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+  </si>
+  <si>
+    <t>Aloe Vera, Lavender</t>
+  </si>
+  <si>
+    <t>Selhphira Aloe Vera Ayurvedic Cleansing Bar</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Selphira-Ayurvedic-Cleansing-Treatment-Hydration/dp/B0DP1BKLKQ?th=1</t>
+  </si>
+  <si>
+    <t>Naturable Aloe Vera Lavender Soap</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Naturalable-Aloe-Lavender-Soap-100gms/dp/B08NSDS7BD</t>
+  </si>
+  <si>
+    <t>D Tan Soap</t>
+  </si>
+  <si>
+    <t>Turmeric, Multani Mitti, Sandalwood, Glycerine</t>
+  </si>
+  <si>
+    <t>Bombay Shaving Company De-Tan Bath Soap</t>
+  </si>
+  <si>
+    <t>Official Website</t>
+  </si>
+  <si>
+    <t>https://www.bombayshavingcompany.com/products/de-tan-bath-soap</t>
+  </si>
+  <si>
+    <t>Deshailly Tan Remover Soap</t>
+  </si>
+  <si>
+    <t>Brand Website</t>
+  </si>
+  <si>
+    <t>https://www.deshaillys.com/products/tan-remover-soap</t>
+  </si>
+  <si>
+    <t>Bright &amp; Beyond De-Tan Soap</t>
+  </si>
+  <si>
+    <t>https://brightandbeyond.in/product/de-tan-soap/</t>
+  </si>
+  <si>
+    <t>Neem, Charcoal, Glycerine</t>
+  </si>
+  <si>
+    <t>Brown Living Neem Charcoal Soap</t>
+  </si>
+  <si>
+    <t>https://brownliving.in/products/neem-bar-soap-for-all-skin-types-with-neem-oil-charcoal</t>
+  </si>
+  <si>
+    <t>Bijbel Khalkho Charcoal Soap</t>
+  </si>
+  <si>
+    <t>Meesho</t>
+  </si>
+  <si>
+    <t>https://www.meesho.com/charcoal-soap/p/8zz4ts</t>
+  </si>
+  <si>
+    <t>AuraBlush Charcoal Soap</t>
+  </si>
+  <si>
+    <t>https://www.meesho.com/charcoal-soap/p/bhtp7t</t>
+  </si>
+  <si>
+    <t>Chandan, Kesar, Glycerine</t>
+  </si>
+  <si>
+    <t>PrakritPurity Haldi Chandan Kesar Soap</t>
+  </si>
+  <si>
+    <t>https://prakritpurity.com/products/haldi-chandan-kesar-handmade-glycerin-soap</t>
+  </si>
+  <si>
+    <t>Brown Living Haldi Chandan Kesar Soap</t>
+  </si>
+  <si>
+    <t>https://brownliving.in/products/haldi-chandan-kesar-cold-process-handmade-soap-1</t>
+  </si>
+  <si>
+    <t>Raj Nature Trove Chandan Kesar Soap</t>
+  </si>
+  <si>
+    <t>https://rajnaturetrove.com/product/soap/</t>
+  </si>
+  <si>
+    <t>Activated Charcoal, Glycerine</t>
+  </si>
+  <si>
+    <t>The Man Company Charcoal &amp; Coconut Soap</t>
+  </si>
+  <si>
+    <t>https://www.themancompany.com/products/charcoal-soap-charcoal-coconut</t>
+  </si>
+  <si>
+    <t>TNW Charcoal Soap</t>
+  </si>
+  <si>
+    <t>Snapdeal</t>
+  </si>
+  <si>
+    <t>https://www.snapdeal.com/product/tnw-the-natural-wash-charcoal/620562715651</t>
+  </si>
+  <si>
+    <t>Advik Ayurveda Charcoal Tea Tree Soap</t>
+  </si>
+  <si>
+    <t>https://advikayurveda.com/charcoal-tea-tree-handmade-soap</t>
+  </si>
+  <si>
+    <t>TruBasic</t>
+  </si>
+  <si>
+    <t>AloeVera Neem Soap</t>
+  </si>
+  <si>
+    <t>AloeVera Lavender Neem Soap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Similar Competitior Products (SCP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCP Platform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCP Pack Size </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;₹&quot;#,##0_);[Red]\(&quot;₹&quot;#,##0\)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +392,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Amazon Ember"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,13 +434,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,16 +773,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A120A5-37CF-439A-80A6-887C4C7849B6}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="290" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="320">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -711,7 +913,7 @@
       </c>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="335">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -777,7 +979,7 @@
       </c>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="409.6">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -843,7 +1045,7 @@
       </c>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="176">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -909,7 +1111,7 @@
       </c>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="128">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -975,7 +1177,7 @@
       </c>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -996,7 +1198,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="240">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1264,7 @@
       </c>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="335">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1330,7 @@
       </c>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1149,7 +1351,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="48">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1217,7 +1419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="288">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1283,7 +1485,7 @@
       </c>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="144">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1349,7 +1551,7 @@
       </c>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="144">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1617,7 @@
       </c>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="144">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +1683,7 @@
       </c>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="192">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1547,7 +1749,7 @@
       </c>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="48">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1615,7 +1817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="64">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1690,4 +1892,483 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD3C3C7-C137-8C42-B950-EC8F59499332}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="25" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="17.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="I25" s="7"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" s="7"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.amazon.in/Cleanse-Natural-Protection-Hydration-Refreshed/dp/B0DNF54WB1/ref=sr_1_2_sspa?crid=1KH12Y9SG8OIN&amp;dib=eyJ2IjoiMSJ9.Iwh0-03nxc_1RvtDc0hQ4gumLXDqdVUIhJRp8Wz--3DzBI4S0tJ2OebvR_wWripVjyW7u3eflgSpJCcTtno14ojMUfi883DS397EfrOmKwUIo9PVPAmhB-NvgcHpDp5fkeboGNyzuYrk5moG-fmbJJGyrc-A-Ek8RtM2xIZqrhYeDwoAsn3o0qmiN4UPa79CXsu0FOsaoRNRQInRnfkHn_7-MfgSCGfJh2E7p1LdOeubYebJARuMF6G6wiX1o-O6GUQU1oTHHfg1-QTyObuVxRxhXgyGHoaDM9S9N1drRUE.Q16g2USIdRzicbqek9FsZ0FtlznnL2eyArs6eebfuZs&amp;dib_tag=se&amp;keywords=aloe%2Bvera%2Bneem%2Bsoap&amp;qid=1770440771&amp;sprefix=aloe%2Bvera%2Bnee%2Bsoap%2Caps%2C533&amp;sr=8-2-spons&amp;aref=nNldu59BBf&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{0F986C67-C469-8B4C-977B-BD945D66E81F}"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.amazon.in/JIVTARA-Neem-Aloe-Vera-Ayurvedic/dp/B0FRSH67NR/ref=sr_1_8?crid=1KH12Y9SG8OIN&amp;dib=eyJ2IjoiMSJ9.Iwh0-03nxc_1RvtDc0hQ4gumLXDqdVUIhJRp8Wz--3DzBI4S0tJ2OebvR_wWripVjyW7u3eflgSpJCcTtno14ojMUfi883DS397EfrOmKwUIo9PVPAmhB-NvgcHpDp5fkeboGNyzuYrk5moG-fmbJJGyrc-A-Ek8RtM2xIZqrhYeDwoAsn3o0qmiN4UPa79CXsu0FOsaoRNRQInRnfkHn_7-MfgSCGfJh2E7p1LdOeubYebJARuMF6G6wiX1o-O6GUQU1oTHHfg1-QTyObuVxRxhXgyGHoaDM9S9N1drRUE.Q16g2USIdRzicbqek9FsZ0FtlznnL2eyArs6eebfuZs&amp;dib_tag=se&amp;keywords=aloe+vera+neem+soap&amp;qid=1770440771&amp;sprefix=aloe+vera+nee+soap%2Caps%2C533&amp;sr=8-8" xr:uid="{191ABC7F-1ABC-6949-A10C-CB0A5EE8B195}"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://www.amazon.in/Neem-Aloe-Nourishing-Anti-Aging-Younger-Looking/dp/B0GGZ7VFQY/ref=sr_1_2_sspa?crid=VPIRKYRAJFJO&amp;dib=eyJ2IjoiMSJ9.9uHpevtJsPOCTBp8e1y2EEhgLYHAp2E5VCHHstWg7cGYof6pn9SIq7Xw19C2pB2df-yi3MrJ083iC71UOfEqzpK-52ew9V3wNJ320Lzy-nCI7q2G6xgLpPht8CCCqzL7OkNl4W-B9cV1LdM7-x9M54luvSyFIhffDyi6DmotRN2a8s7x3bqkHAnrXA8uRREQRkxDglWWb70Ct3wCltmhnOoqiaJnYoz-3dFfpU-V4J7G4PYzjsI5GdgbSr4YjH5JcCRmzQAbUNyRt23SnSVDDzwJuYXuhzUlyBAuIg_1cYg.3_hp__FC6apmrrawqCesUU72SkbjBKGUTrrUE6j18ls&amp;dib_tag=se&amp;keywords=aloe%2Bvera%2Bneem%2Bsoap&amp;qid=1770440895&amp;s=beauty&amp;sprefix=aloe%2Bvera%2Bneem%2Bsoap%2Cbeauty%2C353&amp;sr=1-2-spons&amp;aref=BOLlnmOWjQ&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{69FC3F55-FB71-4A47-A3AE-4C13FC9753E3}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{CEA3A087-C57D-A846-98C0-CA0902501E1D}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{D0C779CC-D2CB-5C45-BC0D-2F7F1F287031}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{16800EFD-2848-F74C-9968-B05601E33F2D}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{B8EE2580-B367-724A-9831-839333F73722}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{99B7E49A-15E6-734B-B3A7-94C36248905A}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{1F929B43-E253-F849-B07C-E7AA96D247AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>